--- a/SureBet.xlsx
+++ b/SureBet.xlsx
@@ -2698,13 +2698,33 @@
         <f>IF(K26&lt;&gt;"",C26+N26,"")</f>
         <v/>
       </c>
-      <c r="D27" s="59" t="n"/>
-      <c r="E27" s="44" t="n"/>
-      <c r="F27" s="183" t="n"/>
-      <c r="G27" s="63" t="n"/>
+      <c r="D27" s="59" t="inlineStr">
+        <is>
+          <t>10/06/22</t>
+        </is>
+      </c>
+      <c r="E27" s="44" t="inlineStr">
+        <is>
+          <t>Ef​bet</t>
+        </is>
+      </c>
+      <c r="F27" s="183" t="inlineStr">
+        <is>
+          <t>16:26</t>
+        </is>
+      </c>
+      <c r="G27" s="63" t="inlineStr">
+        <is>
+          <t>Foto-Higiena Gac – Mks Odra Wodzislaw Slaski</t>
+        </is>
+      </c>
       <c r="H27" s="149" t="n"/>
-      <c r="I27" s="184" t="n"/>
-      <c r="J27" s="185" t="n"/>
+      <c r="I27" s="184" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J27" s="185" t="n">
+        <v>2</v>
+      </c>
       <c r="K27" s="47" t="n"/>
       <c r="L27" s="186">
         <f>IF(K27&lt;&gt;"",IF(K27=$N$8,0,IF(K27=$N$9,I27,IF(K27=$N$5,I27*J27,IF(K27=$N$6,I27,0)))),"")</f>
@@ -2737,12 +2757,20 @@
         <v/>
       </c>
       <c r="D28" s="181" t="n"/>
-      <c r="E28" s="44" t="n"/>
+      <c r="E28" s="44" t="inlineStr">
+        <is>
+          <t>18​Bet</t>
+        </is>
+      </c>
       <c r="F28" s="149" t="n"/>
       <c r="G28" s="149" t="n"/>
       <c r="H28" s="149" t="n"/>
-      <c r="I28" s="184" t="n"/>
-      <c r="J28" s="185" t="n"/>
+      <c r="I28" s="184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J28" s="185" t="n">
+        <v>2</v>
+      </c>
       <c r="K28" s="47" t="n"/>
       <c r="L28" s="186">
         <f>IF(K28&lt;&gt;"",IF(K28=$N$8,0,IF(K28=$N$9,I28,IF(K28=$N$5,I28*J28,IF(K28=$N$6,I28,0)))),"")</f>
@@ -2765,13 +2793,33 @@
         <f>IF(K28&lt;&gt;"",C28+N28,"")</f>
         <v/>
       </c>
-      <c r="D29" s="71" t="n"/>
-      <c r="E29" s="38" t="n"/>
-      <c r="F29" s="177" t="n"/>
-      <c r="G29" s="73" t="n"/>
+      <c r="D29" s="71" t="inlineStr">
+        <is>
+          <t>10d/06m/22yyy</t>
+        </is>
+      </c>
+      <c r="E29" s="38" t="inlineStr">
+        <is>
+          <t>Ef​bet</t>
+        </is>
+      </c>
+      <c r="F29" s="177" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="G29" s="73" t="inlineStr">
+        <is>
+          <t>Foto-Higiena Gac – Mks Odra Wodzislaw Slaski</t>
+        </is>
+      </c>
       <c r="H29" s="149" t="n"/>
-      <c r="I29" s="178" t="n"/>
-      <c r="J29" s="179" t="n"/>
+      <c r="I29" s="178" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J29" s="179" t="n">
+        <v>2</v>
+      </c>
       <c r="K29" s="41" t="n"/>
       <c r="L29" s="156">
         <f>IF(K29&lt;&gt;"",IF(K29=$N$8,0,IF(K29=$N$9,I29,IF(K29=$N$5,I29*J29,IF(K29=$N$6,I29,0)))),"")</f>
@@ -2804,12 +2852,20 @@
         <v/>
       </c>
       <c r="D30" s="181" t="n"/>
-      <c r="E30" s="38" t="n"/>
+      <c r="E30" s="38" t="inlineStr">
+        <is>
+          <t>18​Bet</t>
+        </is>
+      </c>
       <c r="F30" s="149" t="n"/>
       <c r="G30" s="149" t="n"/>
       <c r="H30" s="149" t="n"/>
-      <c r="I30" s="178" t="n"/>
-      <c r="J30" s="179" t="n"/>
+      <c r="I30" s="178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J30" s="179" t="n">
+        <v>2</v>
+      </c>
       <c r="K30" s="41" t="n"/>
       <c r="L30" s="156">
         <f>IF(K30&lt;&gt;"",IF(K30=$N$8,0,IF(K30=$N$9,I30,IF(K30=$N$5,I30*J30,IF(K30=$N$6,I30,0)))),"")</f>
@@ -2832,13 +2888,33 @@
         <f>IF(K30&lt;&gt;"",C30+N30,"")</f>
         <v/>
       </c>
-      <c r="D31" s="59" t="n"/>
-      <c r="E31" s="44" t="n"/>
-      <c r="F31" s="183" t="n"/>
-      <c r="G31" s="63" t="n"/>
+      <c r="D31" s="59" t="inlineStr">
+        <is>
+          <t>10/06/2022</t>
+        </is>
+      </c>
+      <c r="E31" s="44" t="inlineStr">
+        <is>
+          <t>Ef​bet</t>
+        </is>
+      </c>
+      <c r="F31" s="183" t="inlineStr">
+        <is>
+          <t>16:32</t>
+        </is>
+      </c>
+      <c r="G31" s="63" t="inlineStr">
+        <is>
+          <t>Japan – Usa</t>
+        </is>
+      </c>
       <c r="H31" s="149" t="n"/>
-      <c r="I31" s="184" t="n"/>
-      <c r="J31" s="185" t="n"/>
+      <c r="I31" s="184" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J31" s="185" t="n">
+        <v>2</v>
+      </c>
       <c r="K31" s="47" t="n"/>
       <c r="L31" s="186">
         <f>IF(K31&lt;&gt;"",IF(K31=$N$8,0,IF(K31=$N$9,I31,IF(K31=$N$5,I31*J31,IF(K31=$N$6,I31,0)))),"")</f>
@@ -2871,12 +2947,20 @@
         <v/>
       </c>
       <c r="D32" s="181" t="n"/>
-      <c r="E32" s="44" t="n"/>
+      <c r="E32" s="44" t="inlineStr">
+        <is>
+          <t>Balt​bet</t>
+        </is>
+      </c>
       <c r="F32" s="149" t="n"/>
       <c r="G32" s="149" t="n"/>
       <c r="H32" s="149" t="n"/>
-      <c r="I32" s="184" t="n"/>
-      <c r="J32" s="185" t="n"/>
+      <c r="I32" s="184" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J32" s="185" t="n">
+        <v>2</v>
+      </c>
       <c r="K32" s="47" t="n"/>
       <c r="L32" s="186">
         <f>IF(K32&lt;&gt;"",IF(K32=$N$8,0,IF(K32=$N$9,I32,IF(K32=$N$5,I32*J32,IF(K32=$N$6,I32,0)))),"")</f>
@@ -2899,13 +2983,33 @@
         <f>IF(K32&lt;&gt;"",C32+N32,"")</f>
         <v/>
       </c>
-      <c r="D33" s="71" t="n"/>
-      <c r="E33" s="38" t="n"/>
-      <c r="F33" s="177" t="n"/>
-      <c r="G33" s="73" t="n"/>
+      <c r="D33" s="71" t="inlineStr">
+        <is>
+          <t>10/06/2022</t>
+        </is>
+      </c>
+      <c r="E33" s="38" t="inlineStr">
+        <is>
+          <t>Ef​bet</t>
+        </is>
+      </c>
+      <c r="F33" s="177" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="G33" s="73" t="inlineStr">
+        <is>
+          <t>Ekaterina Alexandrova – Veronika Kudermetova</t>
+        </is>
+      </c>
       <c r="H33" s="149" t="n"/>
-      <c r="I33" s="178" t="n"/>
-      <c r="J33" s="179" t="n"/>
+      <c r="I33" s="178" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J33" s="179" t="n">
+        <v>2</v>
+      </c>
       <c r="K33" s="41" t="n"/>
       <c r="L33" s="156">
         <f>IF(K33&lt;&gt;"",IF(K33=$N$8,0,IF(K33=$N$9,I33,IF(K33=$N$5,I33*J33,IF(K33=$N$6,I33,0)))),"")</f>
@@ -2938,12 +3042,20 @@
         <v/>
       </c>
       <c r="D34" s="181" t="n"/>
-      <c r="E34" s="38" t="n"/>
+      <c r="E34" s="38" t="inlineStr">
+        <is>
+          <t>Ls​bet</t>
+        </is>
+      </c>
       <c r="F34" s="149" t="n"/>
       <c r="G34" s="149" t="n"/>
       <c r="H34" s="149" t="n"/>
-      <c r="I34" s="178" t="n"/>
-      <c r="J34" s="179" t="n"/>
+      <c r="I34" s="178" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J34" s="179" t="n">
+        <v>2</v>
+      </c>
       <c r="K34" s="41" t="n"/>
       <c r="L34" s="156">
         <f>IF(K34&lt;&gt;"",IF(K34=$N$8,0,IF(K34=$N$9,I34,IF(K34=$N$5,I34*J34,IF(K34=$N$6,I34,0)))),"")</f>
@@ -2966,13 +3078,33 @@
         <f>IF(K34&lt;&gt;"",C34+N34,"")</f>
         <v/>
       </c>
-      <c r="D35" s="59" t="n"/>
-      <c r="E35" s="44" t="n"/>
-      <c r="F35" s="183" t="n"/>
-      <c r="G35" s="63" t="n"/>
+      <c r="D35" s="59" t="inlineStr">
+        <is>
+          <t>18/06/2022</t>
+        </is>
+      </c>
+      <c r="E35" s="44" t="inlineStr">
+        <is>
+          <t>Gol​Pas</t>
+        </is>
+      </c>
+      <c r="F35" s="183" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+      <c r="G35" s="63" t="inlineStr">
+        <is>
+          <t>Ордабасы – Тараз</t>
+        </is>
+      </c>
       <c r="H35" s="149" t="n"/>
-      <c r="I35" s="184" t="n"/>
-      <c r="J35" s="185" t="n"/>
+      <c r="I35" s="184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" s="185" t="n">
+        <v>1.69</v>
+      </c>
       <c r="K35" s="47" t="n"/>
       <c r="L35" s="186">
         <f>IF(K35&lt;&gt;"",IF(K35=$N$8,0,IF(K35=$N$9,I35,IF(K35=$N$5,I35*J35,IF(K35=$N$6,I35,0)))),"")</f>
@@ -3005,12 +3137,20 @@
         <v/>
       </c>
       <c r="D36" s="181" t="n"/>
-      <c r="E36" s="44" t="n"/>
+      <c r="E36" s="44" t="inlineStr">
+        <is>
+          <t>Ef​bet</t>
+        </is>
+      </c>
       <c r="F36" s="149" t="n"/>
       <c r="G36" s="149" t="n"/>
       <c r="H36" s="149" t="n"/>
-      <c r="I36" s="184" t="n"/>
-      <c r="J36" s="185" t="n"/>
+      <c r="I36" s="184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" s="185" t="n">
+        <v>2.8</v>
+      </c>
       <c r="K36" s="47" t="n"/>
       <c r="L36" s="186">
         <f>IF(K36&lt;&gt;"",IF(K36=$N$8,0,IF(K36=$N$9,I36,IF(K36=$N$5,I36*J36,IF(K36=$N$6,I36,0)))),"")</f>
@@ -3033,13 +3173,33 @@
         <f>IF(K36&lt;&gt;"",C36+N36,"")</f>
         <v/>
       </c>
-      <c r="D37" s="71" t="n"/>
-      <c r="E37" s="38" t="n"/>
-      <c r="F37" s="177" t="n"/>
-      <c r="G37" s="73" t="n"/>
+      <c r="D37" s="71" t="inlineStr">
+        <is>
+          <t>18/06/2022</t>
+        </is>
+      </c>
+      <c r="E37" s="38" t="inlineStr">
+        <is>
+          <t>Gol​Pas</t>
+        </is>
+      </c>
+      <c r="F37" s="177" t="inlineStr">
+        <is>
+          <t>13:51</t>
+        </is>
+      </c>
+      <c r="G37" s="73" t="inlineStr">
+        <is>
+          <t>Ордабасы – Тараз</t>
+        </is>
+      </c>
       <c r="H37" s="149" t="n"/>
-      <c r="I37" s="178" t="n"/>
-      <c r="J37" s="179" t="n"/>
+      <c r="I37" s="178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" s="179" t="n">
+        <v>1.69</v>
+      </c>
       <c r="K37" s="41" t="n"/>
       <c r="L37" s="156">
         <f>IF(K37&lt;&gt;"",IF(K37=$N$8,0,IF(K37=$N$9,I37,IF(K37=$N$5,I37*J37,IF(K37=$N$6,I37,0)))),"")</f>
@@ -3072,12 +3232,20 @@
         <v/>
       </c>
       <c r="D38" s="181" t="n"/>
-      <c r="E38" s="38" t="n"/>
+      <c r="E38" s="38" t="inlineStr">
+        <is>
+          <t>Ef​bet</t>
+        </is>
+      </c>
       <c r="F38" s="149" t="n"/>
       <c r="G38" s="149" t="n"/>
       <c r="H38" s="149" t="n"/>
-      <c r="I38" s="178" t="n"/>
-      <c r="J38" s="179" t="n"/>
+      <c r="I38" s="178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" s="179" t="n">
+        <v>2.8</v>
+      </c>
       <c r="K38" s="41" t="n"/>
       <c r="L38" s="156">
         <f>IF(K38&lt;&gt;"",IF(K38=$N$8,0,IF(K38=$N$9,I38,IF(K38=$N$5,I38*J38,IF(K38=$N$6,I38,0)))),"")</f>
